--- a/Assets/Excels/CharacterSavedData.xlsx
+++ b/Assets/Excels/CharacterSavedData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Inventory_JSON\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD97334-DA76-45DA-9648-55BBD2AD8A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35190842-4A9E-4708-984E-CD895F17E822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="465" windowWidth="21300" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="420" windowWidth="19080" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equpped</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,6 +57,37 @@
   <si>
     <t>[true,false]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Giga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[false]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxInventoryQuantity</t>
   </si>
 </sst>
 </file>
@@ -385,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -396,12 +423,14 @@
     <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,18 +444,30 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="J1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>20000</v>
@@ -434,11 +475,55 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>120</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>10000</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>120</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
